--- a/Exc2/Проверочный лист для аудита ИБ.xlsx
+++ b/Exc2/Проверочный лист для аудита ИБ.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">Настроены ли требования к сложности паролей и их регулярное обновление?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об использовании политик сложности и обновления нет. Учитывая общий уровень безопастности системы предположу что таких политик нет.</t>
+    <t xml:space="preserve">Какой-либо информации об использовании политик сложности и обновления нет. Учитывая общий уровень безопасности системы предположу что таких политик нет.</t>
   </si>
   <si>
     <t xml:space="preserve">В компании используется Keycloak. В данном инструменте можно включить политику сложности пароля а также есть механизмы для его обновления</t>
@@ -91,7 +91,7 @@
     <t xml:space="preserve">Ведётся ли журналирование всех операций доступа к системам и данным? Кто имеет доступ к журналам?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об использовании журнала доступа нет. Учитывая общий уровень безопастности системы предположу что нет.</t>
+    <t xml:space="preserve">Какой-либо информации об использовании журнала доступа нет. Учитывая общий уровень безопасности системы предположу что нет.</t>
   </si>
   <si>
     <t xml:space="preserve">В рамках Keycloak можно включить аудит событие как пользовательских, так и административных, что позволит вести такой журнал.</t>
@@ -100,7 +100,7 @@
     <t xml:space="preserve">Используются ли механизмы контроля доступа на основе атрибутов для повышения гибкости управления доступом?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об использовании контроля доступа на основе атрибутов нет. Учитывая общий уровень безопастности системы предположу что его нет.</t>
+    <t xml:space="preserve">Какой-либо информации об использовании контроля доступа на основе атрибутов нет. Учитывая общий уровень безопасности системы предположу что его нет.</t>
   </si>
   <si>
     <t xml:space="preserve">В рамках Keycloak можно настроить политики аутентификацию не только на основе RBAC модели, но используя другие модели, такие как ABAC, CBAC, UBAC</t>
@@ -119,7 +119,7 @@
   </si>
   <si>
     <t xml:space="preserve">В некоторой степени. Данные используемые разными сервисами разнесены на разные БД. Но, иходя из диаграммы контейнеров выявить однозначно степень изоляции подсистем нет возможности. 
-С учетом использования общей гибридной концепции развертывания системы, можно предпложить что некоторая изоляция всё же есть, но также с учетом общего уровня безопастности предполжу что она носит несистемный и нерегулярный характер.</t>
+С учетом использования общей гибридной концепции развертывания системы, можно предпложить что некоторая изоляция всё же есть, но также с учетом общего уровня безопасности предполжу что она носит несистемный и нерегулярный характер.</t>
   </si>
   <si>
     <t xml:space="preserve">Ограничен ли доступ к системам из внешних источников?</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Применяются ли средства для отзыва прав доступа?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об использовании автоматизированных средств контроля и отзыва прав доступа нет. Учитывая общий уровень безопастности системы предположу что их нет.</t>
+    <t xml:space="preserve">Какой-либо информации об использовании автоматизированных средств контроля и отзыва прав доступа нет. Учитывая общий уровень безопасности системы предположу что их нет.</t>
   </si>
   <si>
     <t xml:space="preserve">В рамках Keycloak можно использовать временные токены для предоставления доступа.</t>
@@ -170,49 +170,13 @@
     <t xml:space="preserve">Используется ли шифрование на уровне базы данных, файловой системы и при передаче данных по сети?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Какой-либо информации об использовании шифрования данных при хранении и передаче нет. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Учитывая общий уровень безопастности системы предположу что таких нет.</t>
-    </r>
+    <t xml:space="preserve">Какой-либо информации об использовании шифрования данных при хранении и передаче нет. Учитывая общий уровень безопасности системы предположу что таких нет.</t>
   </si>
   <si>
     <t xml:space="preserve">Реализованы ли механизмы управления ключами шифрования?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Какой-либо информации об использовании подсистем управления ключей шифрования данных нет. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Учитывая общий уровень безопастности системы предположу что таких нет.</t>
-    </r>
+    <t xml:space="preserve">Какой-либо информации об использовании подсистем управления ключей шифрования данных нет. Учитывая общий уровень безопасности системы предположу что таких нет.</t>
   </si>
   <si>
     <t xml:space="preserve">Проводится ли регулярное резервное копирование данных? Хранятся ли резервные копии в защищённых хранилищах?</t>
@@ -227,13 +191,13 @@
     <t xml:space="preserve">Выполняется ли регулярное тестирование процесса восстановления данных из резервных копий?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об проведении тестирования восстановления данных нет. Учитывая общий уровень безопастности системы предположу что таких мероприятий регулярно не проводится.</t>
+    <t xml:space="preserve">Какой-либо информации об проведении тестирования восстановления данных нет. Учитывая общий уровень безопасности системы предположу что таких мероприятий регулярно не проводится.</t>
   </si>
   <si>
     <t xml:space="preserve">Ограничен ли доступ к резервным копиям данных, и зашифрованы ли они?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об данном аспекте безопастности нет. Учитывая общий уровень безопастности системы предположу что доступ ограничен в недостаточной мере.</t>
+    <t xml:space="preserve">Какой-либо информации об данном аспекте безопасности нет. Учитывая общий уровень безопасности системы предположу что доступ ограничен в недостаточной мере.</t>
   </si>
   <si>
     <t xml:space="preserve">Ведётся ли учёт персональных данных, и применяются ли специальные процедуры обработки и хранения для различных типов данных (общедоступные, конфиденциальные, критически важные)?</t>
@@ -257,7 +221,7 @@
     <t xml:space="preserve">Реализованы ли системы или процессы безопасного уничтожения данных?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации об использовании систем или процессов безопастного уничтожения данных нет.</t>
+    <t xml:space="preserve">Какой-либо информации об использовании систем или процессов безопасного уничтожения данных нет.</t>
   </si>
   <si>
     <t xml:space="preserve">Используются ли системы или процессы контроля целостности данных?</t>
@@ -338,7 +302,7 @@
     <t xml:space="preserve">Проводятся ли автоматизированные сканирования облачных инфраструктур на соответствие рекомендациям безопасности?</t>
   </si>
   <si>
-    <t xml:space="preserve">Какой-либо информации по данному пункту нет. Учитывая общий уровень безопастности системы, предположу что нет.</t>
+    <t xml:space="preserve">Какой-либо информации по данному пункту нет. Учитывая общий уровень безопасности системы, предположу что нет.</t>
   </si>
   <si>
     <t xml:space="preserve">Реализовано ли автоматическое обновление сигнатур защиты от вредоносных программ?</t>
@@ -414,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -451,12 +415,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -534,56 +492,52 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -838,11 +792,11 @@
   </sheetPr>
   <dimension ref="A3:E63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="105.17"/>
@@ -850,282 +804,282 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="118.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="92.51"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16379" min="6" style="1" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="2" width="11.53"/>
   </cols>
   <sheetData>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="84.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" customFormat="false" ht="36.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -1134,399 +1088,399 @@
       <c r="E20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="C24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>60</v>
       </c>
       <c r="E26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>70</v>
       </c>
       <c r="E31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>72</v>
       </c>
       <c r="E32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>74</v>
       </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="5"/>
+      <c r="D38" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="7" t="s">
+      <c r="E39" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E40" s="7"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="B41" s="5" t="s">
+      <c r="A41" s="5" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E41" s="7"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="5" t="n">
         <v>10</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="C44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="C45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="C46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
     </row>
     <row r="48" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D48" s="9" t="s">
@@ -1534,13 +1488,13 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D49" s="9" t="s">
@@ -1548,166 +1502,166 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="C50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="10" t="s">
+      <c r="C51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" s="10" t="s">
+      <c r="C52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="C53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="10" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="10" t="s">
+      <c r="C57" s="5"/>
+      <c r="D57" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="10" t="s">
+      <c r="C58" s="5"/>
+      <c r="D58" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C59" s="4"/>
-      <c r="D59" s="10" t="s">
+      <c r="C59" s="5"/>
+      <c r="D59" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="10" t="s">
+      <c r="C61" s="5"/>
+      <c r="D61" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C62" s="12"/>
-      <c r="D62" s="10" t="s">
+      <c r="C62" s="11"/>
+      <c r="D62" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="52.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="12"/>
-      <c r="D63" s="10" t="s">
+      <c r="C63" s="11"/>
+      <c r="D63" s="7" t="s">
         <v>93</v>
       </c>
     </row>
